--- a/biology/Botanique/Giuseppe_Maria_Giovene/Giuseppe_Maria_Giovene.xlsx
+++ b/biology/Botanique/Giuseppe_Maria_Giovene/Giuseppe_Maria_Giovene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Maria Giovene, né le 23 janvier 1753 à Molfetta et mort dans cette même ville le 2 janvier 1837, est un religieux et un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Molfetta, dans les Pouilles, le 23 janvier 1753, d’une famille noble, il perdit son père étant encore enfant. Sa mère, aidée des conseils d’Orlandi, évêque de Molfetta, confia son éducation à un prêtre fort habile. Il existait alors dans cette ville un collège de jésuites ; Giovene y fut reçu novice à l’âge de treize ans, puis envoyé à Naples, où il s’appliqua à l’étude des langues grecque et latine. Il était au moment de terminer son noviciat et de prononcer ses vœux lorsque la société fut supprimée ; alors il retourna dans sa famille. Mais décidé à se consacrer à l’Église, il prit l’habit ecclésiastique, revint à Naples pour étudier le droit civil et canonique, sans oublier les sciences naturelles, pour lesquelles il avait un goût particulier.
 La ville de Naples avait depuis 1770 rappelé Giuseppe Saverio Poli, professeur de philosophie à Padoue, pour illustrer l’université et l’Académie parthénopéenne. Giovene se concilia la bienveillance de ce professeur ; il se perfectionna dans l’étude de la physique et suivit les cours d’anatomie, de chimie, de botanique et de minéralogie, professés par les fameux Cirillo, Serano, Petagna, Cotogno et Sementini, qui faisaient l’honneur de cet ancien athénée. L’étude des sciences ne put le détourner de son projet d’entrer dans les ordres, et il reçut de l’évêque Orlandi le sous-diaconat ; il eut bientôt le chagrin de faire l’oraison funèbre de cet excellent prélat. Cet éloge a été imprimé à Naples en 1775. Peu de temps après Giovene fut nommé chanoine à Molfetta et reçu docteur à l’université, puis devint grand vicaire de l’évêque Antonnucci, ce qui ne lui fit point abandonner les sciences naturelles. C’est à lui et à l’abbé Fortis que l’on doit le nitrate de potasse, qu’il découvrit en 1785 dans le grand cratère de Pulo, près de Molfetta.
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Giovene (Joseph-Marie) », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]</t>
         </is>
